--- a/src/main/webapp/WEB-INF/surveyInfo/test_surveyInfo.xlsx
+++ b/src/main/webapp/WEB-INF/surveyInfo/test_surveyInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>강의 아이디</t>
   </si>
@@ -39,6 +39,27 @@
   </si>
   <si>
     <t>2023-06-10T23:33</t>
+  </si>
+  <si>
+    <t>1_20230605151432.xlsx</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2023-06-06T16:13</t>
+  </si>
+  <si>
+    <t>2023-06-08T16:13</t>
+  </si>
+  <si>
+    <t>김준</t>
+  </si>
+  <si>
+    <t>2023-06-06T16:25</t>
+  </si>
+  <si>
+    <t>2023-06-09T16:25</t>
   </si>
 </sst>
 </file>
@@ -83,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,6 +144,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/webapp/WEB-INF/surveyInfo/test_surveyInfo.xlsx
+++ b/src/main/webapp/WEB-INF/surveyInfo/test_surveyInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>강의 아이디</t>
   </si>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>2023-06-09T16:25</t>
+  </si>
+  <si>
+    <t>2023-06-07T19:17</t>
+  </si>
+  <si>
+    <t>2023-06-09T19:17</t>
+  </si>
+  <si>
+    <t>2023-06-06T20:43</t>
+  </si>
+  <si>
+    <t>2023-06-09T20:44</t>
+  </si>
+  <si>
+    <t>2023-06-07T20:44</t>
+  </si>
+  <si>
+    <t>2023-06-08T20:29</t>
+  </si>
+  <si>
+    <t>2023-06-10T20:45</t>
+  </si>
+  <si>
+    <t>2023-06-13T20:45</t>
   </si>
 </sst>
 </file>
@@ -104,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -178,6 +202,74 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
